--- a/PCO-Transactions Static Data.xlsx
+++ b/PCO-Transactions Static Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Packages\PCO-Transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A4A9B712-ED61-4E11-AADE-AD192BA389CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA4999F-EF60-4B53-8D61-9792EB821BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="3550" windowWidth="30160" windowHeight="10100" activeTab="4"/>
+    <workbookView xWindow="1600" yWindow="2040" windowWidth="32210" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionTypes" sheetId="2" r:id="rId1"/>
@@ -20,99 +20,100 @@
     <sheet name="TransactionCodeGLEntries" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="Data1_IMPORT_DATA_ACTION">'TransactionTypes'!$A$2</definedName>
-    <definedName name="Data1_IMPORT_DATA_TYPE">'TransactionTypes'!$B$2</definedName>
-    <definedName name="Data1_ID">'TransactionTypes'!$C$2</definedName>
-    <definedName name="Data1_Name">'TransactionTypes'!$D$2</definedName>
-    <definedName name="Data1_Description">'TransactionTypes'!$E$2</definedName>
-    <definedName name="Data1_Type">'TransactionTypes'!$F$2</definedName>
-    <definedName name="HeaderAll1">'TransactionTypes'!$A$1:$F$1</definedName>
-    <definedName name="DataAll1">'TransactionTypes'!$A$2:$F$2</definedName>
-    <definedName name="HeaderDataAll1">'TransactionTypes'!$A$1:$F$2</definedName>
-    <definedName name="Data2_IMPORT_DATA_ACTION">'TransactionTypeValues'!$A$2:$A$19</definedName>
-    <definedName name="Data2_IMPORT_DATA_TYPE">'TransactionTypeValues'!$B$2:$B$19</definedName>
-    <definedName name="Data2_ID">'TransactionTypeValues'!$C$2:$C$19</definedName>
-    <definedName name="Data2_TransactionTypeID_Name">'TransactionTypeValues'!$D$2:$D$19</definedName>
-    <definedName name="Data2_Name">'TransactionTypeValues'!$E$2:$E$19</definedName>
-    <definedName name="Data2_Code">'TransactionTypeValues'!$F$2:$F$19</definedName>
-    <definedName name="Data2_Description">'TransactionTypeValues'!$G$2:$G$19</definedName>
-    <definedName name="Data2_Entry">'TransactionTypeValues'!$H$2:$H$19</definedName>
-    <definedName name="Data2_IncludeInStepChanges">'TransactionTypeValues'!$I$2:$I$19</definedName>
-    <definedName name="HeaderAll2">'TransactionTypeValues'!$A$1:$I$1</definedName>
-    <definedName name="DataAll2">'TransactionTypeValues'!$A$2:$I$19</definedName>
-    <definedName name="HeaderDataAll2">'TransactionTypeValues'!$A$1:$I$19</definedName>
-    <definedName name="Data3_IMPORT_DATA_ACTION">'TransactionCodes'!$A$2:$A$6</definedName>
-    <definedName name="Data3_IMPORT_DATA_TYPE">'TransactionCodes'!$B$2:$B$6</definedName>
-    <definedName name="Data3_ID">'TransactionCodes'!$C$2:$C$6</definedName>
-    <definedName name="Data3_Name">'TransactionCodes'!$D$2:$D$6</definedName>
-    <definedName name="Data3_Code">'TransactionCodes'!$E$2:$E$6</definedName>
-    <definedName name="Data3_Description">'TransactionCodes'!$F$2:$F$6</definedName>
-    <definedName name="Data3_Type">'TransactionCodes'!$G$2:$G$6</definedName>
-    <definedName name="Data3_SettingsType">'TransactionCodes'!$H$2:$H$6</definedName>
-    <definedName name="Data3_Path">'TransactionCodes'!$I$2:$I$6</definedName>
-    <definedName name="Data3_Allocation">'TransactionCodes'!$J$2:$J$6</definedName>
-    <definedName name="Data3_GL">'TransactionCodes'!$K$2:$K$6</definedName>
-    <definedName name="Data3_Fields">'TransactionCodes'!$L$2:$L$6</definedName>
-    <definedName name="Data3_AllowNewValues">'TransactionCodes'!$M$2:$M$6</definedName>
-    <definedName name="Data3_AllowAssociations">'TransactionCodes'!$N$2:$N$6</definedName>
-    <definedName name="Data3_AllowLocalCurrencyOverride">'TransactionCodes'!$O$2:$O$6</definedName>
-    <definedName name="Data3_SubTransactions">'TransactionCodes'!$P$2:$P$6</definedName>
-    <definedName name="Data3_LedgerID_Name">'TransactionCodes'!$Q$2:$Q$6</definedName>
-    <definedName name="Data3_OffsettingTransactionCodeID_Name">'TransactionCodes'!$R$2:$R$6</definedName>
-    <definedName name="Data3_ExchangeRateCategoryID_Name">'TransactionCodes'!$S$2:$S$6</definedName>
-    <definedName name="HeaderAll3">'TransactionCodes'!$A$1:$S$1</definedName>
-    <definedName name="DataAll3">'TransactionCodes'!$A$2:$S$6</definedName>
-    <definedName name="HeaderDataAll3">'TransactionCodes'!$A$1:$S$6</definedName>
-    <definedName name="Data4_IMPORT_DATA_ACTION">'TransactionCodeValues'!$A$2:$A$29</definedName>
-    <definedName name="Data4_IMPORT_DATA_TYPE">'TransactionCodeValues'!$B$2:$B$29</definedName>
-    <definedName name="Data4_ID">'TransactionCodeValues'!$C$2:$C$29</definedName>
-    <definedName name="Data4_TransactionCodeID_Name">'TransactionCodeValues'!$D$2:$D$29</definedName>
-    <definedName name="Data4_TransactionTypeValueID_Name">'TransactionCodeValues'!$E$2:$E$29</definedName>
-    <definedName name="Data4_Type">'TransactionCodeValues'!$F$2:$F$29</definedName>
-    <definedName name="Data4_AllowValueAutoGL">'TransactionCodeValues'!$G$2:$G$29</definedName>
-    <definedName name="Data4_LocalValueFormula">'TransactionCodeValues'!$H$2:$H$29</definedName>
-    <definedName name="Data4_IncludeInNetFormula">'TransactionCodeValues'!$I$2:$I$29</definedName>
-    <definedName name="Data4_OffsettingTransactionTypeValueID_Name">'TransactionCodeValues'!$J$2:$J$29</definedName>
-    <definedName name="Data4_OffsetNegate">'TransactionCodeValues'!$K$2:$K$29</definedName>
-    <definedName name="HeaderAll4">'TransactionCodeValues'!$A$1:$K$1</definedName>
-    <definedName name="DataAll4">'TransactionCodeValues'!$A$2:$K$29</definedName>
-    <definedName name="HeaderDataAll4">'TransactionCodeValues'!$A$1:$K$29</definedName>
-    <definedName name="Data5_IMPORT_DATA_ACTION">'TransactionCodeGLEntries'!$A$2:$A$14</definedName>
-    <definedName name="Data5_IMPORT_DATA_TYPE">'TransactionCodeGLEntries'!$B$2:$B$14</definedName>
-    <definedName name="Data5_ID">'TransactionCodeGLEntries'!$C$2:$C$14</definedName>
-    <definedName name="Data5_TransactionTypeValueID_Name">'TransactionCodeGLEntries'!$D$2:$D$14</definedName>
-    <definedName name="Data5_TransactionCodeID_Name">'TransactionCodeGLEntries'!$E$2:$E$14</definedName>
-    <definedName name="Data5_SelectableBankAccount">'TransactionCodeGLEntries'!$F$2:$F$14</definedName>
-    <definedName name="Data5_IsBalancingEntry">'TransactionCodeGLEntries'!$G$2:$G$14</definedName>
-    <definedName name="Data5_AllowNegatives">'TransactionCodeGLEntries'!$H$2:$H$14</definedName>
-    <definedName name="Data5_Date">'TransactionCodeGLEntries'!$I$2:$I$14</definedName>
-    <definedName name="Data5_Entry">'TransactionCodeGLEntries'!$J$2:$J$14</definedName>
-    <definedName name="Data5_ValueLocalFormula">'TransactionCodeGLEntries'!$K$2:$K$14</definedName>
-    <definedName name="Data5_ValueFunctionalFormula">'TransactionCodeGLEntries'!$L$2:$L$14</definedName>
-    <definedName name="Data5_ValueReportingFormula">'TransactionCodeGLEntries'!$M$2:$M$14</definedName>
-    <definedName name="Data5_DebitCredit">'TransactionCodeGLEntries'!$N$2:$N$14</definedName>
-    <definedName name="Data5_GLAccountID_Code">'TransactionCodeGLEntries'!$O$2:$O$14</definedName>
-    <definedName name="Data5_LedgerID_Name">'TransactionCodeGLEntries'!$P$2:$P$14</definedName>
-    <definedName name="HeaderAll5">'TransactionCodeGLEntries'!$A$1:$P$1</definedName>
-    <definedName name="DataAll5">'TransactionCodeGLEntries'!$A$2:$P$14</definedName>
-    <definedName name="HeaderDataAll5">'TransactionCodeGLEntries'!$A$1:$P$14</definedName>
-    <definedName name="Data_Description" localSheetId="0">'TransactionTypes'!$E$2</definedName>
-    <definedName name="Data_ID" localSheetId="0">'TransactionTypes'!$C$2</definedName>
-    <definedName name="Data_IMPORT_DATA_ACTION" localSheetId="0">'TransactionTypes'!$A$2</definedName>
-    <definedName name="Data_IMPORT_DATA_TYPE" localSheetId="0">'TransactionTypes'!$B$2</definedName>
-    <definedName name="Data_Name" localSheetId="0">'TransactionTypes'!$D$2</definedName>
-    <definedName name="DataAll" localSheetId="0">'TransactionTypes'!$A$2:$F$2</definedName>
-    <definedName name="HeaderAll" localSheetId="0">'TransactionTypes'!$A$1:$F$1</definedName>
-    <definedName name="HeaderDataAll" localSheetId="0">'TransactionTypes'!$A$1:$F$2</definedName>
-    <definedName name="Data_ID" localSheetId="3">'TransactionCodeValues'!$C$3:$C$8</definedName>
-    <definedName name="Data_IMPORT_DATA_ACTION" localSheetId="3">'TransactionCodeValues'!$A$3:$A$8</definedName>
-    <definedName name="Data_IMPORT_DATA_TYPE" localSheetId="3">'TransactionCodeValues'!$B$3:$B$8</definedName>
-    <definedName name="Data_Type" localSheetId="3">'TransactionCodeValues'!$F$3:$F$8</definedName>
-    <definedName name="DataAll" localSheetId="3">'TransactionCodeValues'!$A$3:$K$8</definedName>
-    <definedName name="HeaderAll" localSheetId="3">'TransactionCodeValues'!$A$1:$K$1</definedName>
-    <definedName name="HeaderDataAll" localSheetId="3">'TransactionCodeValues'!$A$1:$K$8</definedName>
+    <definedName name="Data_Description" localSheetId="0">TransactionTypes!$E$2</definedName>
+    <definedName name="Data_ID" localSheetId="3">TransactionCodeValues!$C$3:$C$8</definedName>
+    <definedName name="Data_ID" localSheetId="0">TransactionTypes!$C$2</definedName>
+    <definedName name="Data_IMPORT_DATA_ACTION" localSheetId="3">TransactionCodeValues!$A$3:$A$8</definedName>
+    <definedName name="Data_IMPORT_DATA_ACTION" localSheetId="0">TransactionTypes!$A$2</definedName>
+    <definedName name="Data_IMPORT_DATA_TYPE" localSheetId="3">TransactionCodeValues!$B$3:$B$8</definedName>
+    <definedName name="Data_IMPORT_DATA_TYPE" localSheetId="0">TransactionTypes!$B$2</definedName>
+    <definedName name="Data_Name" localSheetId="0">TransactionTypes!$D$2</definedName>
+    <definedName name="Data_Type" localSheetId="3">TransactionCodeValues!$G$3:$G$8</definedName>
+    <definedName name="Data1_Description">TransactionTypes!$E$2</definedName>
+    <definedName name="Data1_ID">TransactionTypes!$C$2</definedName>
+    <definedName name="Data1_IMPORT_DATA_ACTION">TransactionTypes!$A$2</definedName>
+    <definedName name="Data1_IMPORT_DATA_TYPE">TransactionTypes!$B$2</definedName>
+    <definedName name="Data1_Name">TransactionTypes!$D$2</definedName>
+    <definedName name="Data1_Type">TransactionTypes!$F$2</definedName>
+    <definedName name="Data2_Code">TransactionTypeValues!$F$2:$F$19</definedName>
+    <definedName name="Data2_Description">TransactionTypeValues!$G$2:$G$19</definedName>
+    <definedName name="Data2_Entry">TransactionTypeValues!$H$2:$H$19</definedName>
+    <definedName name="Data2_ID">TransactionTypeValues!$C$2:$C$19</definedName>
+    <definedName name="Data2_IMPORT_DATA_ACTION">TransactionTypeValues!$A$2:$A$19</definedName>
+    <definedName name="Data2_IMPORT_DATA_TYPE">TransactionTypeValues!$B$2:$B$19</definedName>
+    <definedName name="Data2_IncludeInStepChanges">TransactionTypeValues!$I$2:$I$19</definedName>
+    <definedName name="Data2_Name">TransactionTypeValues!$E$2:$E$19</definedName>
+    <definedName name="Data2_TransactionTypeID_Name">TransactionTypeValues!$D$2:$D$19</definedName>
+    <definedName name="Data3_Allocation">TransactionCodes!$J$2:$J$6</definedName>
+    <definedName name="Data3_AllowAssociations">TransactionCodes!$N$2:$N$6</definedName>
+    <definedName name="Data3_AllowLocalCurrencyOverride">TransactionCodes!$O$2:$O$6</definedName>
+    <definedName name="Data3_AllowNewValues">TransactionCodes!$M$2:$M$6</definedName>
+    <definedName name="Data3_Code">TransactionCodes!$E$2:$E$6</definedName>
+    <definedName name="Data3_Description">TransactionCodes!$F$2:$F$6</definedName>
+    <definedName name="Data3_ExchangeRateCategoryID_Name">TransactionCodes!$S$2:$S$6</definedName>
+    <definedName name="Data3_Fields">TransactionCodes!$L$2:$L$6</definedName>
+    <definedName name="Data3_GL">TransactionCodes!$K$2:$K$6</definedName>
+    <definedName name="Data3_ID">TransactionCodes!$C$2:$C$6</definedName>
+    <definedName name="Data3_IMPORT_DATA_ACTION">TransactionCodes!$A$2:$A$6</definedName>
+    <definedName name="Data3_IMPORT_DATA_TYPE">TransactionCodes!$B$2:$B$6</definedName>
+    <definedName name="Data3_LedgerID_Name">TransactionCodes!$Q$2:$Q$6</definedName>
+    <definedName name="Data3_Name">TransactionCodes!$D$2:$D$6</definedName>
+    <definedName name="Data3_OffsettingTransactionCodeID_Name">TransactionCodes!$R$2:$R$6</definedName>
+    <definedName name="Data3_Path">TransactionCodes!$I$2:$I$6</definedName>
+    <definedName name="Data3_SettingsType">TransactionCodes!$H$2:$H$6</definedName>
+    <definedName name="Data3_SubTransactions">TransactionCodes!$P$2:$P$6</definedName>
+    <definedName name="Data3_Type">TransactionCodes!$G$2:$G$6</definedName>
+    <definedName name="Data4_AllowValueAutoGL">TransactionCodeValues!$H$2:$H$29</definedName>
+    <definedName name="Data4_ID">TransactionCodeValues!$C$2:$C$29</definedName>
+    <definedName name="Data4_IMPORT_DATA_ACTION">TransactionCodeValues!$A$2:$A$29</definedName>
+    <definedName name="Data4_IMPORT_DATA_TYPE">TransactionCodeValues!$B$2:$B$29</definedName>
+    <definedName name="Data4_IncludeInNetFormula">TransactionCodeValues!$J$2:$J$29</definedName>
+    <definedName name="Data4_LocalValueFormula">TransactionCodeValues!$I$2:$I$29</definedName>
+    <definedName name="Data4_OffsetNegate">TransactionCodeValues!$L$2:$L$29</definedName>
+    <definedName name="Data4_OffsettingTransactionTypeValueID_Name">TransactionCodeValues!$K$2:$K$29</definedName>
+    <definedName name="Data4_Sequence">TransactionCodeValues!$D$2:$D$29</definedName>
+    <definedName name="Data4_TransactionCodeID_Name">TransactionCodeValues!$E$2:$E$29</definedName>
+    <definedName name="Data4_TransactionTypeValueID_Name">TransactionCodeValues!$F$2:$F$29</definedName>
+    <definedName name="Data4_Type">TransactionCodeValues!$G$2:$G$29</definedName>
+    <definedName name="Data5_AllowNegatives">TransactionCodeGLEntries!$H$2:$H$14</definedName>
+    <definedName name="Data5_Date">TransactionCodeGLEntries!$I$2:$I$14</definedName>
+    <definedName name="Data5_DebitCredit">TransactionCodeGLEntries!$N$2:$N$14</definedName>
+    <definedName name="Data5_Entry">TransactionCodeGLEntries!$J$2:$J$14</definedName>
+    <definedName name="Data5_GLAccountID_Code">TransactionCodeGLEntries!$O$2:$O$14</definedName>
+    <definedName name="Data5_ID">TransactionCodeGLEntries!$C$2:$C$14</definedName>
+    <definedName name="Data5_IMPORT_DATA_ACTION">TransactionCodeGLEntries!$A$2:$A$14</definedName>
+    <definedName name="Data5_IMPORT_DATA_TYPE">TransactionCodeGLEntries!$B$2:$B$14</definedName>
+    <definedName name="Data5_IsBalancingEntry">TransactionCodeGLEntries!$G$2:$G$14</definedName>
+    <definedName name="Data5_LedgerID_Name">TransactionCodeGLEntries!$P$2:$P$14</definedName>
+    <definedName name="Data5_SelectableBankAccount">TransactionCodeGLEntries!$F$2:$F$14</definedName>
+    <definedName name="Data5_TransactionCodeID_Name">TransactionCodeGLEntries!$E$2:$E$14</definedName>
+    <definedName name="Data5_TransactionTypeValueID_Name">TransactionCodeGLEntries!$D$2:$D$14</definedName>
+    <definedName name="Data5_ValueFunctionalFormula">TransactionCodeGLEntries!$L$2:$L$14</definedName>
+    <definedName name="Data5_ValueLocalFormula">TransactionCodeGLEntries!$K$2:$K$14</definedName>
+    <definedName name="Data5_ValueReportingFormula">TransactionCodeGLEntries!$M$2:$M$14</definedName>
+    <definedName name="DataAll" localSheetId="3">TransactionCodeValues!$A$3:$L$8</definedName>
+    <definedName name="DataAll" localSheetId="0">TransactionTypes!$A$2:$F$2</definedName>
+    <definedName name="DataAll1">TransactionTypes!$A$2:$F$2</definedName>
+    <definedName name="DataAll2">TransactionTypeValues!$A$2:$I$19</definedName>
+    <definedName name="DataAll3">TransactionCodes!$A$2:$S$6</definedName>
+    <definedName name="DataAll4">TransactionCodeValues!$A$2:$L$29</definedName>
+    <definedName name="DataAll5">TransactionCodeGLEntries!$A$2:$P$14</definedName>
+    <definedName name="HeaderAll" localSheetId="3">TransactionCodeValues!$A$1:$L$1</definedName>
+    <definedName name="HeaderAll" localSheetId="0">TransactionTypes!$A$1:$F$1</definedName>
+    <definedName name="HeaderAll1">TransactionTypes!$A$1:$F$1</definedName>
+    <definedName name="HeaderAll2">TransactionTypeValues!$A$1:$I$1</definedName>
+    <definedName name="HeaderAll3">TransactionCodes!$A$1:$S$1</definedName>
+    <definedName name="HeaderAll4">TransactionCodeValues!$A$1:$L$1</definedName>
+    <definedName name="HeaderAll5">TransactionCodeGLEntries!$A$1:$P$1</definedName>
+    <definedName name="HeaderDataAll" localSheetId="3">TransactionCodeValues!$A$1:$L$8</definedName>
+    <definedName name="HeaderDataAll" localSheetId="0">TransactionTypes!$A$1:$F$2</definedName>
+    <definedName name="HeaderDataAll1">TransactionTypes!$A$1:$F$2</definedName>
+    <definedName name="HeaderDataAll2">TransactionTypeValues!$A$1:$I$19</definedName>
+    <definedName name="HeaderDataAll3">TransactionCodes!$A$1:$S$6</definedName>
+    <definedName name="HeaderDataAll4">TransactionCodeValues!$A$1:$L$29</definedName>
+    <definedName name="HeaderDataAll5">TransactionCodeGLEntries!$A$1:$P$14</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -129,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="126">
   <si>
     <t>IMPORT_DATA_ACTION</t>
   </si>
@@ -369,6 +370,9 @@
   </si>
   <si>
     <t>PCOVAL</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
   <si>
     <t>TransactionCodeID_Name</t>
@@ -416,7 +420,7 @@
 return Realized; </t>
   </si>
   <si>
-    <t xml:space="preserve">// TotalUnrealised = Total Book Value - Total Book Cost
+    <t>// TotalUnrealised = Total Book Value - Total Book Cost
 var TotalUnrealized = GetLocalTransactionValue("PREVBV") - GetLocalTransactionValue("PREVBC") ;
 // We calculate the ratio of Unrealized IF there is something to sell i.e PREVBC &lt;&gt; 0
 if ( GetLocalTransactionValue("PREVBC") != 0) {
@@ -470,12 +474,6 @@
 return BookCost; </t>
   </si>
   <si>
-    <t xml:space="preserve">// Delta between CURR and PREV - the variation of Current Cost
-var DeltaUnPNL = GetLocalTransactionValue("CURRBV") - GetLocalTransactionValue("PREVBV") - GetLocalTransactionValue("PCC");
-// Unrealised P&amp;L variation 
-return DeltaUnPNL; </t>
-  </si>
-  <si>
     <t xml:space="preserve">// Delta between CURR and PREV
 var SoldCost = GetLocalTransactionValue("CURRPCS") - GetLocalTransactionValue("PREVPCS");
 // SoldCost variation 
@@ -554,13 +552,21 @@
   <si>
     <t>56010 - Unrealized Gain/Loss</t>
   </si>
+  <si>
+    <t xml:space="preserve">// Delta between CURR and PREV - the variation of Unrealized P&amp;L
+var DeltaUnPNL = (GetLocalTransactionValue("CURRBV") - GetLocalTransactionValue("CURRBC")) - 
+                 (GetLocalTransactionValue("PREVBV") - GetLocalTransactionValue("PREVBC")) ;
+// Unrealised P&amp;L variation 
+return DeltaUnPNL;
+// Unrealised P&amp;L variation 
+return DeltaUnPNL; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,7 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.099978637043366805"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,58 +1067,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="12" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="13" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="14" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="15" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="16" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="17" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="18" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="19" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="20" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="21" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="22" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="23" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="24" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="25" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="26" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="7" applyFill="1" borderId="7" applyBorder="1" xfId="27" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="28" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="29" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="30" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="31" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="32" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="33" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="5" applyFill="1" borderId="4" applyBorder="1" xfId="34" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="35" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="36" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="8" applyFill="1" borderId="8" applyBorder="1" xfId="37" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="6" applyFill="1" borderId="5" applyBorder="1" xfId="38" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="39" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="40" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="41" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="34" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="35" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="36" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1478,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1487,53 +1453,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1543,527 +1508,526 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.453125" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="2.6328125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="22" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="8.36328125" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="31.81640625" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="5.1796875" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="42" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="42" t="s">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="42" t="s">
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="42" t="s">
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42" t="s">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="42" t="s">
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="42" t="s">
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="42" t="s">
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="42" t="s">
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="42" t="s">
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="42" t="s">
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="42" t="s">
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="42" t="s">
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="42" t="s">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="42" t="s">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="42" t="s">
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="42" t="s">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="42" t="s">
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="42" t="b">
+      <c r="I19" s="2" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2072,1784 +2036,1897 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="1" width="18.36328125" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="10.26953125" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="11.26953125" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="14.7265625" customWidth="1"/>
-    <col min="14" max="14" bestFit="1" width="15.81640625" customWidth="1"/>
-    <col min="15" max="15" bestFit="1" width="24.6328125" customWidth="1"/>
-    <col min="16" max="16" bestFit="1" width="14.54296875" customWidth="1"/>
-    <col min="17" max="17" bestFit="1" width="14.1796875" customWidth="1"/>
-    <col min="18" max="18" bestFit="1" width="31.1796875" customWidth="1"/>
-    <col min="19" max="19" bestFit="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="48" t="s">
+      <c r="M2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="48" t="s">
+      <c r="M3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="48" t="s">
+      <c r="M4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="K5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="48" t="s">
+      <c r="M5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="48" t="s">
+      <c r="J6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="48" t="s">
+      <c r="K6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="48" t="s">
+      <c r="L6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="48" t="s">
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="20.81640625" customWidth="1" style="47"/>
-    <col min="2" max="2" bestFit="1" width="20.453125" customWidth="1" style="47"/>
-    <col min="3" max="3" bestFit="1" width="2.6328125" customWidth="1" style="47"/>
-    <col min="4" max="4" bestFit="1" width="22.81640625" customWidth="1" style="47"/>
-    <col min="5" max="5" bestFit="1" width="27.26953125" customWidth="1" style="47"/>
-    <col min="6" max="6" bestFit="1" width="9.36328125" customWidth="1" style="47"/>
-    <col min="7" max="7" bestFit="1" width="16.26953125" customWidth="1" style="47"/>
-    <col min="8" max="8" bestFit="1" width="255.6328125" customWidth="1" style="47"/>
-    <col min="9" max="9" bestFit="1" width="18.54296875" customWidth="1" style="47"/>
-    <col min="10" max="10" bestFit="1" width="35.6328125" customWidth="1" style="47"/>
-    <col min="11" max="11" bestFit="1" width="11.7265625" customWidth="1" style="47"/>
-    <col min="12" max="16384" width="8.7265625" customWidth="1" style="47"/>
+    <col min="1" max="1" width="20.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="104.54296875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="47" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G2" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="47" t="b">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
         <v>1</v>
       </c>
-      <c r="K2" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="47" t="s">
+      <c r="E3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="G3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="47" t="s">
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="G12" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="47" t="s">
+      <c r="H14" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="47" t="s">
+      <c r="J15" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="10">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="G23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="47" t="b">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10">
+        <v>11</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10">
+        <v>14</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="L28" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="47" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10">
+        <v>15</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I7" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="I15" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I16" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G28" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="47" t="b">
+      <c r="H29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" bestFit="1" width="22.90625" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="2.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="22.81640625" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="20.1796875" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="22" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="16.6328125" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="21.26953125" customWidth="1"/>
-    <col min="13" max="13" bestFit="1" width="20.6328125" customWidth="1"/>
-    <col min="15" max="15" bestFit="1" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="50" t="s">
+      <c r="F2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="50" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="50" t="b">
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="50" t="s">
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50" t="s">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="50" t="s">
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="J5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50" t="s">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="50" t="b">
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="50" t="s">
+      <c r="H6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="50" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="50" t="s">
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50" t="s">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="50" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="50" t="s">
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50" t="s">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="50" t="s">
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J9" s="50" t="s">
+      <c r="J9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50" t="s">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="50" t="s">
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50" t="s">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="50" t="s">
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="J11" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50" t="s">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="50" t="b">
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="50" t="s">
+      <c r="H12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50" t="s">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="50" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="50" t="s">
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50" t="s">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="50" t="b">
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="J14" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50" t="s">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3864,6 +3941,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>